--- a/testCases/test.xlsx
+++ b/testCases/test.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E44698-D30A-494F-A0AA-52E6A0CFF85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5C976E-0114-4CE5-9813-64956268CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="APP接口" sheetId="1" r:id="rId1"/>
+    <sheet name="管理后台" sheetId="2" r:id="rId2"/>
+    <sheet name="礼品卡" sheetId="3" r:id="rId3"/>
+    <sheet name="提现" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,7 +64,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"pageNum": 1, "pageSize": 10}</t>
+    <t>/manager/user/information/authority/set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "exportEmail": 1,
+    "exportNickname": 0,
+    "userId": 80,
+    "viewEmail": 0,
+    "viewNickname": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageNum": 1,
+    "pageSize": 10
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户信息权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/banner/page</t>
+  </si>
+  <si>
+    <t>分页查询banner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,15 +468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
-    <col min="2" max="2" width="53.36328125" customWidth="1"/>
-    <col min="3" max="3" width="53.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+    <col min="2" max="3" width="50.6328125" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,15 +544,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+    <col min="2" max="3" width="50.6328125" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="98" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D5C31638-4A61-4C9F-8286-76BEE24D526C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -539,4 +618,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211E264-7DDE-4B0F-AB01-27AFF087E230}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>